--- a/RealEstateAnalyszingTool.xlsx
+++ b/RealEstateAnalyszingTool.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Masa\Desktop\REAnalyzingTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25920E08-1261-4308-9F63-8877B4E87238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9759FAF-46E8-4EF1-9618-77B3E2D28F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="3k4FIN3hcZC2fHdTw9bi/nJH7pJWmbLoW0y8SZJ/yMlxb5laEmMx4DdfoHwTowBII9ICLFtlu+s/UzpzfVXMeQ==" workbookSaltValue="mhGe/jAhnlKfk5TWaZZ+5Q==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D473BC54-900F-4A3E-8C3D-C23A812F35C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D473BC54-900F-4A3E-8C3D-C23A812F35C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="22" r:id="rId1"/>
@@ -35131,12 +35132,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D21:H21"/>
     <mergeCell ref="B109:C109"/>
     <mergeCell ref="D30:H30"/>
     <mergeCell ref="G44:I44"/>
@@ -35144,6 +35139,12 @@
     <mergeCell ref="D80:I80"/>
     <mergeCell ref="B86:C86"/>
     <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D21:H21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{21C3F5E9-1E49-4473-B51E-12482D7B96B9}">
@@ -48881,6 +48882,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="zjzbB87QynpzzdbsePUVQ1iwhchT8kpm1SLKwv+LSEv1Ws3Q9jZ8D/GXtlC7YN9LvO5vNtBqRhUS5IbXpC/35g==" saltValue="tAJowTAib/pCA9L2D3JWMA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
     <hyperlink ref="A1" location="'Table of contents'!A1" display="Table of contents" xr:uid="{AF63A0BB-21BA-4412-BB84-50191B96EC1C}"/>
     <hyperlink ref="W1" location="Outputs!A21" display="Back" xr:uid="{46BB899B-0994-40F2-8E5E-B545A8DD7226}"/>
@@ -51147,6 +51149,7 @@
       <c r="A75" s="554"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="pg7apou/JZLDhJA35jcFClL21DblrVGhpz4T8ox6eIJAa+YUc/q0KoF+B5D7CMlKDXcIB2swxJM5f4zRcu5qJA==" saltValue="Ex5o2e1EAVuWHDrt79PC/A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="12">
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B71:C71"/>
@@ -53892,7 +53895,7 @@
   <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -55432,6 +55435,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="IU7cBvFSMynHp4N/vALORpenILIbYUcnk7cdL8DyZTN+eKPrssu/ZJtDTkyTGUJCcr2G5LrMqja+P5irGj7Q5w==" saltValue="yGWzkvckOpKwguxyNsrQ3A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
     <mergeCell ref="B109:C109"/>
     <mergeCell ref="D61:H61"/>
@@ -55609,8 +55613,8 @@
   </sheetPr>
   <dimension ref="A1:P249"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.6" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -58962,6 +58966,7 @@
       <c r="K249" s="158"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="N9Ps8W4sHyRRld83u/tyFpnY3JO7zUkwUUeMfnwDZokXkul79yFlzEtf4SZufjV/3euGgxG0UHk/HgVGyS9GsA==" saltValue="muUS5z9qEgDkm9Vm4neTQg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="C2:C5" name="Range1"/>
   </protectedRanges>

--- a/RealEstateAnalyszingTool.xlsx
+++ b/RealEstateAnalyszingTool.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Masa\Desktop\REAnalyzingTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26347117-6804-4DA8-B9E3-E7F52E40CA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D87A0A6-5BE1-473B-BD5B-4B2DB29CD383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="bp8euC9wgaHlkrMvJas8JcBd5pPWXhSMIm3x1imdVYPnCni5tdk5ZraHykiOzgSlbYXr44yu5kCf+GwH9cvTbA==" workbookSaltValue="XPvBmNQxYcrUkrLIFui2eg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{D473BC54-900F-4A3E-8C3D-C23A812F35C1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{D473BC54-900F-4A3E-8C3D-C23A812F35C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="22" r:id="rId1"/>
@@ -6749,252 +6749,6 @@
     <xf numFmtId="173" fontId="0" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="9" fillId="2" borderId="100" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="136" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="54" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="119" fillId="45" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="119" fillId="45" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="47" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="47" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="27" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="27" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="36" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="36" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="36" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="38" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="38" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="37" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="37" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="40" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="40" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="39" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="39" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="39" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="24" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="24" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="24" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="31" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="31" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="31" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="39" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="36" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="36" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="24" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="42" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="48" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="48" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -7010,13 +6764,261 @@
     <xf numFmtId="164" fontId="111" fillId="43" borderId="109" xfId="7" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="111" fillId="43" borderId="109" xfId="7" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="122" fillId="55" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="45" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="45" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="47" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="47" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="27" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="27" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="36" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="36" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="36" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="38" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="38" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="37" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="37" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="40" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="40" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="39" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="39" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="39" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="24" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="24" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="24" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="31" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="31" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="31" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="39" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="36" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="36" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="24" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="42" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="48" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="48" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="111" fillId="43" borderId="109" xfId="7" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
@@ -21180,30 +21182,34 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$B$23" max="20" min="1" page="10" val="10"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="31" fmlaLink="$C$41" max="15" page="10" val="0"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="31" fmlaLink="$C$42" max="15" page="10" val="3"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="31" fmlaLink="$C$88" max="35" page="10" val="5"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="31" fmlaLink="$C$50" max="15" page="10" val="0"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="31" fmlaLink="$C$11" max="24" page="10" val="0"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="31" fmlaLink="$C$50" max="15" page="10" val="0"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="31" fmlaLink="$E$14" max="24" page="10" val="5"/>
 </file>
 
@@ -22181,7 +22187,7 @@
         <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22263,7 +22269,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22368,7 +22374,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22436,7 +22442,7 @@
                   <a14:compatExt spid="_x0000_s10241"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000001280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000001280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22486,7 +22492,7 @@
                   <a14:compatExt spid="_x0000_s10242"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22536,7 +22542,7 @@
                   <a14:compatExt spid="_x0000_s10243"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000003280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000003280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22586,7 +22592,7 @@
                   <a14:compatExt spid="_x0000_s10244"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000004280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000004280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22636,7 +22642,7 @@
                   <a14:compatExt spid="_x0000_s10245"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000005280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000005280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22686,7 +22692,7 @@
                   <a14:compatExt spid="_x0000_s10246"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000006280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000006280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22732,7 +22738,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22806,7 +22812,7 @@
                   <a14:compatExt spid="_x0000_s11265"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-0000012C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-0000012C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22857,7 +22863,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23282,7 +23288,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>269779</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>174582</xdr:rowOff>
+      <xdr:rowOff>170772</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -23354,6 +23360,56 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>198120</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>137160</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>419100</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>53340</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18440" name="Spinner 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s18440"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008480000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -23777,7 +23833,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23815,7 +23871,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23853,7 +23909,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23891,7 +23947,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23929,7 +23985,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23967,7 +24023,7 @@
         <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24006,7 +24062,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24071,7 +24127,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24136,7 +24192,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24201,7 +24257,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24266,7 +24322,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24330,7 +24386,7 @@
         <xdr:cNvPr id="16" name="Chart 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24368,7 +24424,7 @@
         <xdr:cNvPr id="17" name="Chart 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24406,7 +24462,7 @@
         <xdr:cNvPr id="18" name="Chart 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25141,17 +25197,18 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.6640625" customWidth="1"/>
     <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="1014" t="s">
+      <c r="A1" s="931" t="s">
         <v>536</v>
       </c>
     </row>
@@ -25170,21 +25227,24 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1015">
+      <c r="B3" s="932">
         <f>'ROI Number insert'!F41</f>
         <v>1272</v>
       </c>
-      <c r="C3" s="1015"/>
+      <c r="C3" s="932">
+        <f>B3</f>
+        <v>1272</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1016">
+      <c r="B4" s="933">
         <f>FV('ROI Number insert'!$F$8,RepairMentenance!A4,,-RepairMentenance!$B$3)</f>
         <v>1323.3887999999999</v>
       </c>
-      <c r="C4" s="1015">
+      <c r="C4" s="932">
         <f>B3+B4</f>
         <v>2595.3887999999997</v>
       </c>
@@ -25193,11 +25253,11 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1016">
+      <c r="B5" s="933">
         <f>FV('ROI Number insert'!$F$8,RepairMentenance!A5,,-RepairMentenance!$B$3)</f>
         <v>1349.8565759999999</v>
       </c>
-      <c r="C5" s="1015">
+      <c r="C5" s="932">
         <f>C4+B5</f>
         <v>3945.2453759999999</v>
       </c>
@@ -25206,11 +25266,11 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1016">
+      <c r="B6" s="933">
         <f>FV('ROI Number insert'!$F$8,RepairMentenance!A6,,-RepairMentenance!$B$3)</f>
         <v>1376.8537075199999</v>
       </c>
-      <c r="C6" s="1015">
+      <c r="C6" s="932">
         <f t="shared" ref="C6:C22" si="0">C5+B6</f>
         <v>5322.09908352</v>
       </c>
@@ -25219,11 +25279,11 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1016">
+      <c r="B7" s="933">
         <f>FV('ROI Number insert'!$F$8,RepairMentenance!A7,,-RepairMentenance!$B$3)</f>
         <v>1404.3907816704</v>
       </c>
-      <c r="C7" s="1015">
+      <c r="C7" s="932">
         <f t="shared" si="0"/>
         <v>6726.4898651904005</v>
       </c>
@@ -25232,11 +25292,11 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="1016">
+      <c r="B8" s="933">
         <f>FV('ROI Number insert'!$F$8,RepairMentenance!A8,,-RepairMentenance!$B$3)</f>
         <v>1432.4785973038081</v>
       </c>
-      <c r="C8" s="1015">
+      <c r="C8" s="932">
         <f t="shared" si="0"/>
         <v>8158.9684624942083</v>
       </c>
@@ -25245,11 +25305,11 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="1016">
+      <c r="B9" s="933">
         <f>FV('ROI Number insert'!$F$8,RepairMentenance!A9,,-RepairMentenance!$B$3)</f>
         <v>1461.128169249884</v>
       </c>
-      <c r="C9" s="1015">
+      <c r="C9" s="932">
         <f t="shared" si="0"/>
         <v>9620.0966317440925</v>
       </c>
@@ -25258,11 +25318,11 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="1016">
+      <c r="B10" s="933">
         <f>FV('ROI Number insert'!$F$8,RepairMentenance!A10,,-RepairMentenance!$B$3)</f>
         <v>1490.3507326348818</v>
       </c>
-      <c r="C10" s="1015">
+      <c r="C10" s="932">
         <f t="shared" si="0"/>
         <v>11110.447364378975</v>
       </c>
@@ -25271,11 +25331,11 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="1016">
+      <c r="B11" s="933">
         <f>FV('ROI Number insert'!$F$8,RepairMentenance!A11,,-RepairMentenance!$B$3)</f>
         <v>1520.1577472875795</v>
       </c>
-      <c r="C11" s="1015">
+      <c r="C11" s="932">
         <f t="shared" si="0"/>
         <v>12630.605111666555</v>
       </c>
@@ -25284,11 +25344,11 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="1016">
+      <c r="B12" s="933">
         <f>FV('ROI Number insert'!$F$8,RepairMentenance!A12,,-RepairMentenance!$B$3)</f>
         <v>1550.560902233331</v>
       </c>
-      <c r="C12" s="1015">
+      <c r="C12" s="932">
         <f t="shared" si="0"/>
         <v>14181.166013899885</v>
       </c>
@@ -25297,11 +25357,11 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="1016">
+      <c r="B13" s="933">
         <f>FV('ROI Number insert'!$F$8,RepairMentenance!A13,,-RepairMentenance!$B$3)</f>
         <v>1581.5721202779973</v>
       </c>
-      <c r="C13" s="1015">
+      <c r="C13" s="932">
         <f t="shared" si="0"/>
         <v>15762.738134177882</v>
       </c>
@@ -25310,11 +25370,11 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="1016">
+      <c r="B14" s="933">
         <f>FV('ROI Number insert'!$F$8,RepairMentenance!A14,,-RepairMentenance!$B$3)</f>
         <v>1613.2035626835575</v>
       </c>
-      <c r="C14" s="1015">
+      <c r="C14" s="932">
         <f t="shared" si="0"/>
         <v>17375.941696861439</v>
       </c>
@@ -25323,11 +25383,11 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="1016">
+      <c r="B15" s="933">
         <f>FV('ROI Number insert'!$F$8,RepairMentenance!A15,,-RepairMentenance!$B$3)</f>
         <v>1645.4676339372286</v>
       </c>
-      <c r="C15" s="1015">
+      <c r="C15" s="932">
         <f t="shared" si="0"/>
         <v>19021.409330798666</v>
       </c>
@@ -25336,11 +25396,11 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="1016">
+      <c r="B16" s="933">
         <f>FV('ROI Number insert'!$F$8,RepairMentenance!A16,,-RepairMentenance!$B$3)</f>
         <v>1678.3769866159735</v>
       </c>
-      <c r="C16" s="1015">
+      <c r="C16" s="932">
         <f t="shared" si="0"/>
         <v>20699.786317414641</v>
       </c>
@@ -25349,11 +25409,11 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="1016">
+      <c r="B17" s="933">
         <f>FV('ROI Number insert'!$F$8,RepairMentenance!A17,,-RepairMentenance!$B$3)</f>
         <v>1711.9445263482924</v>
       </c>
-      <c r="C17" s="1015">
+      <c r="C17" s="932">
         <f t="shared" si="0"/>
         <v>22411.730843762933</v>
       </c>
@@ -25362,11 +25422,11 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="1016">
+      <c r="B18" s="933">
         <f>FV('ROI Number insert'!$F$8,RepairMentenance!A18,,-RepairMentenance!$B$3)</f>
         <v>1746.1834168752584</v>
       </c>
-      <c r="C18" s="1015">
+      <c r="C18" s="932">
         <f t="shared" si="0"/>
         <v>24157.91426063819</v>
       </c>
@@ -25375,11 +25435,11 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="1016">
+      <c r="B19" s="933">
         <f>FV('ROI Number insert'!$F$8,RepairMentenance!A19,,-RepairMentenance!$B$3)</f>
         <v>1781.1070852127639</v>
       </c>
-      <c r="C19" s="1015">
+      <c r="C19" s="932">
         <f t="shared" si="0"/>
         <v>25939.021345850953</v>
       </c>
@@ -25388,11 +25448,11 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="1016">
+      <c r="B20" s="933">
         <f>FV('ROI Number insert'!$F$8,RepairMentenance!A20,,-RepairMentenance!$B$3)</f>
         <v>1816.7292269170189</v>
       </c>
-      <c r="C20" s="1015">
+      <c r="C20" s="932">
         <f t="shared" si="0"/>
         <v>27755.750572767971</v>
       </c>
@@ -25401,11 +25461,11 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="1016">
+      <c r="B21" s="933">
         <f>FV('ROI Number insert'!$F$8,RepairMentenance!A21,,-RepairMentenance!$B$3)</f>
         <v>1853.0638114553592</v>
       </c>
-      <c r="C21" s="1015">
+      <c r="C21" s="932">
         <f t="shared" si="0"/>
         <v>29608.814384223329</v>
       </c>
@@ -25414,11 +25474,11 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="1016">
+      <c r="B22" s="933">
         <f>FV('ROI Number insert'!$F$8,RepairMentenance!A22,,-RepairMentenance!$B$3)</f>
         <v>1890.1250876844665</v>
       </c>
-      <c r="C22" s="1015">
+      <c r="C22" s="932">
         <f t="shared" si="0"/>
         <v>31498.939471907797</v>
       </c>
@@ -25460,20 +25520,20 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="983" t="s">
+      <c r="A2" s="992" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="983"/>
+      <c r="B2" s="992"/>
       <c r="C2" s="877">
         <f>'ROI Number insert'!F12</f>
         <v>1030400</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="983" t="s">
+      <c r="A3" s="992" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="983"/>
+      <c r="B3" s="992"/>
       <c r="C3" s="877">
         <f>'Mortgage Caculator'!C11</f>
         <v>6327.5575204682691</v>
@@ -25481,10 +25541,10 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="983" t="s">
+      <c r="A4" s="992" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="983"/>
+      <c r="B4" s="992"/>
       <c r="C4" s="878">
         <f>'ROI Number insert'!F5</f>
         <v>5.5E-2</v>
@@ -25492,10 +25552,10 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="983" t="s">
+      <c r="A5" s="992" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="983"/>
+      <c r="B5" s="992"/>
       <c r="C5" s="581">
         <f>'ROI Number insert'!F4</f>
         <v>25</v>
@@ -25503,10 +25563,10 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="983" t="s">
+      <c r="A6" s="992" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="983"/>
+      <c r="B6" s="992"/>
       <c r="C6" s="581">
         <f>'Mortgage Caculator'!C6</f>
         <v>12</v>
@@ -25514,15 +25574,15 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="982" t="s">
+      <c r="A7" s="991" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="982"/>
-      <c r="C7" s="982"/>
-      <c r="D7" s="982"/>
-      <c r="E7" s="982"/>
-      <c r="F7" s="982"/>
-      <c r="G7" s="982"/>
+      <c r="B7" s="991"/>
+      <c r="C7" s="991"/>
+      <c r="D7" s="991"/>
+      <c r="E7" s="991"/>
+      <c r="F7" s="991"/>
+      <c r="G7" s="991"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" s="881" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
@@ -34005,13 +34065,13 @@
     </row>
     <row r="3" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="120"/>
-      <c r="B3" s="984" t="s">
+      <c r="B3" s="993" t="s">
         <v>361</v>
       </c>
-      <c r="C3" s="984"/>
-      <c r="D3" s="984"/>
-      <c r="E3" s="984"/>
-      <c r="F3" s="984"/>
+      <c r="C3" s="993"/>
+      <c r="D3" s="993"/>
+      <c r="E3" s="993"/>
+      <c r="F3" s="993"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
@@ -34065,13 +34125,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="985" t="s">
+      <c r="B10" s="994" t="s">
         <v>367</v>
       </c>
-      <c r="C10" s="985"/>
-      <c r="D10" s="985"/>
-      <c r="E10" s="985"/>
-      <c r="F10" s="985"/>
+      <c r="C10" s="994"/>
+      <c r="D10" s="994"/>
+      <c r="E10" s="994"/>
+      <c r="F10" s="994"/>
     </row>
     <row r="11" spans="1:6" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="421"/>
@@ -34147,13 +34207,13 @@
     </row>
     <row r="19" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="120"/>
-      <c r="B19" s="984" t="s">
+      <c r="B19" s="993" t="s">
         <v>362</v>
       </c>
-      <c r="C19" s="984"/>
-      <c r="D19" s="984"/>
-      <c r="E19" s="984"/>
-      <c r="F19" s="984"/>
+      <c r="C19" s="993"/>
+      <c r="D19" s="993"/>
+      <c r="E19" s="993"/>
+      <c r="F19" s="993"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
@@ -34171,13 +34231,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="985" t="s">
+      <c r="B23" s="994" t="s">
         <v>369</v>
       </c>
-      <c r="C23" s="985"/>
-      <c r="D23" s="985"/>
-      <c r="E23" s="985"/>
-      <c r="F23" s="985"/>
+      <c r="C23" s="994"/>
+      <c r="D23" s="994"/>
+      <c r="E23" s="994"/>
+      <c r="F23" s="994"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
@@ -34190,12 +34250,12 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="986" t="s">
+      <c r="C26" s="995" t="s">
         <v>372</v>
       </c>
-      <c r="D26" s="986"/>
-      <c r="E26" s="986"/>
-      <c r="F26" s="986"/>
+      <c r="D26" s="995"/>
+      <c r="E26" s="995"/>
+      <c r="F26" s="995"/>
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="120" t="s">
@@ -34325,24 +34385,24 @@
       <c r="A1" s="895" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="991" t="s">
+      <c r="B1" s="1000" t="s">
         <v>318</v>
       </c>
-      <c r="C1" s="991"/>
-      <c r="E1" s="991" t="s">
+      <c r="C1" s="1000"/>
+      <c r="E1" s="1000" t="s">
         <v>319</v>
       </c>
-      <c r="F1" s="991"/>
+      <c r="F1" s="1000"/>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="987" t="s">
+      <c r="B2" s="996" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="988"/>
-      <c r="E2" s="989" t="s">
+      <c r="C2" s="997"/>
+      <c r="E2" s="998" t="s">
         <v>155</v>
       </c>
-      <c r="F2" s="990"/>
+      <c r="F2" s="999"/>
       <c r="H2" s="897"/>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -34503,14 +34563,14 @@
       <c r="A13" s="895" t="s">
         <v>531</v>
       </c>
-      <c r="B13" s="987" t="s">
+      <c r="B13" s="996" t="s">
         <v>244</v>
       </c>
-      <c r="C13" s="988"/>
-      <c r="E13" s="989" t="s">
+      <c r="C13" s="997"/>
+      <c r="E13" s="998" t="s">
         <v>244</v>
       </c>
-      <c r="F13" s="990"/>
+      <c r="F13" s="999"/>
       <c r="H13" s="897"/>
     </row>
     <row r="14" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -34651,25 +34711,25 @@
       <c r="A1" s="626" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="996" t="s">
+      <c r="B1" s="1005" t="s">
         <v>318</v>
       </c>
-      <c r="C1" s="996"/>
-      <c r="E1" s="996" t="s">
+      <c r="C1" s="1005"/>
+      <c r="E1" s="1005" t="s">
         <v>319</v>
       </c>
-      <c r="F1" s="996"/>
+      <c r="F1" s="1005"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="992" t="s">
+      <c r="B2" s="1001" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="993"/>
-      <c r="E2" s="994" t="s">
+      <c r="C2" s="1002"/>
+      <c r="E2" s="1003" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="995"/>
+      <c r="F2" s="1004"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -34809,10 +34869,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="980" t="s">
+      <c r="B2" s="989" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="980"/>
+      <c r="C2" s="989"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" s="290" t="s">
@@ -35039,10 +35099,10 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="997" t="s">
+      <c r="B2" s="1006" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="998"/>
+      <c r="C2" s="1007"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -35198,10 +35258,10 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="999" t="s">
+      <c r="B15" s="1008" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="1000"/>
+      <c r="C15" s="1009"/>
       <c r="D15" s="4"/>
       <c r="H15" s="4"/>
     </row>
@@ -35248,19 +35308,19 @@
         <f>'Calculating offering price'!C19</f>
         <v>208051</v>
       </c>
-      <c r="D19" s="936" t="s">
+      <c r="D19" s="945" t="s">
         <v>235</v>
       </c>
-      <c r="E19" s="937"/>
-      <c r="F19" s="937"/>
-      <c r="G19" s="937"/>
-      <c r="H19" s="937"/>
+      <c r="E19" s="946"/>
+      <c r="F19" s="946"/>
+      <c r="G19" s="946"/>
+      <c r="H19" s="946"/>
     </row>
     <row r="20" spans="2:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="1001" t="s">
+      <c r="B20" s="1010" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="1002"/>
+      <c r="C20" s="1011"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -35275,13 +35335,13 @@
         <f>C46*C6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D21" s="938" t="s">
+      <c r="D21" s="947" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="939"/>
-      <c r="F21" s="939"/>
-      <c r="G21" s="939"/>
-      <c r="H21" s="939"/>
+      <c r="E21" s="948"/>
+      <c r="F21" s="948"/>
+      <c r="G21" s="948"/>
+      <c r="H21" s="948"/>
       <c r="I21" s="244"/>
     </row>
     <row r="22" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -35309,10 +35369,10 @@
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="934" t="s">
+      <c r="B24" s="943" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="935"/>
+      <c r="C24" s="944"/>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -35383,13 +35443,13 @@
         <f>'Debt payment Calculator'!F6</f>
         <v>0</v>
       </c>
-      <c r="D30" s="940" t="s">
+      <c r="D30" s="949" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="939"/>
-      <c r="F30" s="939"/>
-      <c r="G30" s="939"/>
-      <c r="H30" s="939"/>
+      <c r="E30" s="948"/>
+      <c r="F30" s="948"/>
+      <c r="G30" s="948"/>
+      <c r="H30" s="948"/>
     </row>
     <row r="31" spans="2:9" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="330" t="s">
@@ -35609,11 +35669,11 @@
         <v>0</v>
       </c>
       <c r="F44" s="4"/>
-      <c r="G44" s="937" t="s">
+      <c r="G44" s="946" t="s">
         <v>212</v>
       </c>
-      <c r="H44" s="937"/>
-      <c r="I44" s="937"/>
+      <c r="H44" s="946"/>
+      <c r="I44" s="946"/>
     </row>
     <row r="45" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="340" t="s">
@@ -35880,13 +35940,13 @@
         <f>C14*0.6%</f>
         <v>#NUM!</v>
       </c>
-      <c r="D61" s="927" t="s">
+      <c r="D61" s="936" t="s">
         <v>213</v>
       </c>
-      <c r="E61" s="927"/>
-      <c r="F61" s="927"/>
-      <c r="G61" s="927"/>
-      <c r="H61" s="927"/>
+      <c r="E61" s="936"/>
+      <c r="F61" s="936"/>
+      <c r="G61" s="936"/>
+      <c r="H61" s="936"/>
       <c r="I61" s="23"/>
       <c r="J61" s="23"/>
     </row>
@@ -36177,14 +36237,14 @@
         <f>C14*0.8%</f>
         <v>#NUM!</v>
       </c>
-      <c r="D80" s="941" t="s">
+      <c r="D80" s="950" t="s">
         <v>73</v>
       </c>
-      <c r="E80" s="941"/>
-      <c r="F80" s="941"/>
-      <c r="G80" s="941"/>
-      <c r="H80" s="941"/>
-      <c r="I80" s="941"/>
+      <c r="E80" s="950"/>
+      <c r="F80" s="950"/>
+      <c r="G80" s="950"/>
+      <c r="H80" s="950"/>
+      <c r="I80" s="950"/>
     </row>
     <row r="81" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B81" s="351" t="s">
@@ -36254,10 +36314,10 @@
       <c r="E85" s="4"/>
     </row>
     <row r="86" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B86" s="942" t="s">
+      <c r="B86" s="951" t="s">
         <v>81</v>
       </c>
-      <c r="C86" s="943"/>
+      <c r="C86" s="952"/>
       <c r="D86" s="2" t="s">
         <v>224</v>
       </c>
@@ -36370,10 +36430,10 @@
     </row>
     <row r="97" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="98" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B98" s="944" t="s">
+      <c r="B98" s="953" t="s">
         <v>219</v>
       </c>
-      <c r="C98" s="945"/>
+      <c r="C98" s="954"/>
     </row>
     <row r="99" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B99" s="363" t="s">
@@ -36460,10 +36520,10 @@
     </row>
     <row r="108" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="109" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B109" s="925" t="s">
+      <c r="B109" s="934" t="s">
         <v>220</v>
       </c>
-      <c r="C109" s="926"/>
+      <c r="C109" s="935"/>
     </row>
     <row r="110" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B110" s="366" t="s">
@@ -36550,6 +36610,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D21:H21"/>
     <mergeCell ref="B109:C109"/>
     <mergeCell ref="D30:H30"/>
     <mergeCell ref="G44:I44"/>
@@ -36557,12 +36623,6 @@
     <mergeCell ref="D80:I80"/>
     <mergeCell ref="B86:C86"/>
     <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D21:H21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{21C3F5E9-1E49-4473-B51E-12482D7B96B9}">
@@ -37778,10 +37838,10 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="928" t="s">
+      <c r="B2" s="937" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="929"/>
+      <c r="C2" s="938"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="31.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -37939,10 +37999,10 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="930" t="s">
+      <c r="B15" s="939" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="931"/>
+      <c r="C15" s="940"/>
       <c r="D15" s="4"/>
       <c r="H15" s="4"/>
     </row>
@@ -37988,19 +38048,19 @@
       <c r="C19" s="648">
         <v>208051</v>
       </c>
-      <c r="D19" s="936" t="s">
+      <c r="D19" s="945" t="s">
         <v>235</v>
       </c>
-      <c r="E19" s="937"/>
-      <c r="F19" s="937"/>
-      <c r="G19" s="937"/>
-      <c r="H19" s="937"/>
+      <c r="E19" s="946"/>
+      <c r="F19" s="946"/>
+      <c r="G19" s="946"/>
+      <c r="H19" s="946"/>
     </row>
     <row r="20" spans="2:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="932" t="s">
+      <c r="B20" s="941" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="933"/>
+      <c r="C20" s="942"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -38015,13 +38075,13 @@
         <f>C46*C6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D21" s="938" t="s">
+      <c r="D21" s="947" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="939"/>
-      <c r="F21" s="939"/>
-      <c r="G21" s="939"/>
-      <c r="H21" s="939"/>
+      <c r="E21" s="948"/>
+      <c r="F21" s="948"/>
+      <c r="G21" s="948"/>
+      <c r="H21" s="948"/>
       <c r="I21" s="244"/>
     </row>
     <row r="22" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -38049,10 +38109,10 @@
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="934" t="s">
+      <c r="B24" s="943" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="935"/>
+      <c r="C24" s="944"/>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -38140,13 +38200,13 @@
         <f>'Debt payment Calculator'!C6</f>
         <v>0</v>
       </c>
-      <c r="D30" s="940" t="s">
+      <c r="D30" s="949" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="939"/>
-      <c r="F30" s="939"/>
-      <c r="G30" s="939"/>
-      <c r="H30" s="939"/>
+      <c r="E30" s="948"/>
+      <c r="F30" s="948"/>
+      <c r="G30" s="948"/>
+      <c r="H30" s="948"/>
     </row>
     <row r="31" spans="2:9" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="330" t="s">
@@ -38155,7 +38215,7 @@
       <c r="C31" s="648">
         <v>0</v>
       </c>
-      <c r="D31" s="1007" t="s">
+      <c r="D31" s="925" t="s">
         <v>30</v>
       </c>
       <c r="E31" s="271"/>
@@ -38356,11 +38416,11 @@
         <v>0</v>
       </c>
       <c r="F44" s="4"/>
-      <c r="G44" s="937" t="s">
+      <c r="G44" s="946" t="s">
         <v>212</v>
       </c>
-      <c r="H44" s="937"/>
-      <c r="I44" s="937"/>
+      <c r="H44" s="946"/>
+      <c r="I44" s="946"/>
     </row>
     <row r="45" spans="2:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="340" t="s">
@@ -38627,13 +38687,13 @@
         <f>C14*0.6%</f>
         <v>2294.6964705882351</v>
       </c>
-      <c r="D61" s="927" t="s">
+      <c r="D61" s="936" t="s">
         <v>213</v>
       </c>
-      <c r="E61" s="927"/>
-      <c r="F61" s="927"/>
-      <c r="G61" s="927"/>
-      <c r="H61" s="927"/>
+      <c r="E61" s="936"/>
+      <c r="F61" s="936"/>
+      <c r="G61" s="936"/>
+      <c r="H61" s="936"/>
       <c r="I61" s="23"/>
       <c r="J61" s="23"/>
     </row>
@@ -38924,14 +38984,14 @@
         <f>C14*0.8%</f>
         <v>3059.595294117647</v>
       </c>
-      <c r="D80" s="941" t="s">
+      <c r="D80" s="950" t="s">
         <v>73</v>
       </c>
-      <c r="E80" s="941"/>
-      <c r="F80" s="941"/>
-      <c r="G80" s="941"/>
-      <c r="H80" s="941"/>
-      <c r="I80" s="941"/>
+      <c r="E80" s="950"/>
+      <c r="F80" s="950"/>
+      <c r="G80" s="950"/>
+      <c r="H80" s="950"/>
+      <c r="I80" s="950"/>
     </row>
     <row r="81" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B81" s="351" t="s">
@@ -39001,10 +39061,10 @@
       <c r="E85" s="4"/>
     </row>
     <row r="86" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B86" s="942" t="s">
+      <c r="B86" s="951" t="s">
         <v>81</v>
       </c>
-      <c r="C86" s="943"/>
+      <c r="C86" s="952"/>
       <c r="D86" s="2" t="s">
         <v>224</v>
       </c>
@@ -39116,10 +39176,10 @@
     </row>
     <row r="97" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="98" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B98" s="944" t="s">
+      <c r="B98" s="953" t="s">
         <v>219</v>
       </c>
-      <c r="C98" s="945"/>
+      <c r="C98" s="954"/>
     </row>
     <row r="99" spans="2:4" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B99" s="363" t="s">
@@ -39205,10 +39265,10 @@
     </row>
     <row r="108" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="109" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B109" s="925" t="s">
+      <c r="B109" s="934" t="s">
         <v>220</v>
       </c>
-      <c r="C109" s="926"/>
+      <c r="C109" s="935"/>
     </row>
     <row r="110" spans="2:4" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B110" s="366" t="s">
@@ -39499,13 +39559,13 @@
       <c r="B1" s="646" t="s">
         <v>454</v>
       </c>
-      <c r="D1" s="948" t="s">
+      <c r="D1" s="957" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="948"/>
-      <c r="F1" s="948"/>
-      <c r="G1" s="948"/>
-      <c r="H1" s="948"/>
+      <c r="E1" s="957"/>
+      <c r="F1" s="957"/>
+      <c r="G1" s="957"/>
+      <c r="H1" s="957"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -39520,10 +39580,10 @@
         <v>1588000</v>
       </c>
       <c r="F2" s="52"/>
-      <c r="G2" s="1003" t="s">
+      <c r="G2" s="1012" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="1004"/>
+      <c r="H2" s="1013"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -39695,10 +39755,10 @@
         <v>500</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="951" t="s">
+      <c r="G10" s="960" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="952"/>
+      <c r="H10" s="961"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -39962,10 +40022,10 @@
       <c r="A22" s="76"/>
       <c r="B22" s="76"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="955" t="s">
+      <c r="D22" s="964" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="956"/>
+      <c r="E22" s="965"/>
       <c r="F22" s="76"/>
       <c r="G22" s="84" t="s">
         <v>41</v>
@@ -40078,10 +40138,10 @@
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D28" s="953" t="s">
+      <c r="D28" s="962" t="s">
         <v>187</v>
       </c>
-      <c r="E28" s="954"/>
+      <c r="E28" s="963"/>
       <c r="F28" s="89"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -40132,10 +40192,10 @@
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D31" s="946" t="s">
+      <c r="D31" s="955" t="s">
         <v>239</v>
       </c>
-      <c r="E31" s="947"/>
+      <c r="E31" s="956"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -42643,20 +42703,20 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1006" t="s">
+      <c r="A2" s="1015" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="1006"/>
+      <c r="B2" s="1015"/>
       <c r="C2" s="554">
         <f>'ROI Number insert ARV'!H11</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1006" t="s">
+      <c r="A3" s="1015" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="1006"/>
+      <c r="B3" s="1015"/>
       <c r="C3" s="554" t="e">
         <f>'Mortgage Caculator'!F11</f>
         <v>#NUM!</v>
@@ -42664,10 +42724,10 @@
       <c r="I3"/>
     </row>
     <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1006" t="s">
+      <c r="A4" s="1015" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="1006"/>
+      <c r="B4" s="1015"/>
       <c r="C4" s="555">
         <f>'ROI Number insert ARV'!E5</f>
         <v>0</v>
@@ -42675,10 +42735,10 @@
       <c r="I4"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1006" t="s">
+      <c r="A5" s="1015" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="1006"/>
+      <c r="B5" s="1015"/>
       <c r="C5" s="556">
         <f>'ROI Number insert ARV'!E4</f>
         <v>0</v>
@@ -42686,10 +42746,10 @@
       <c r="I5"/>
     </row>
     <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1006" t="s">
+      <c r="A6" s="1015" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="1006"/>
+      <c r="B6" s="1015"/>
       <c r="C6" s="556">
         <f>'Mortgage Caculator'!F6</f>
         <v>12</v>
@@ -42697,15 +42757,15 @@
       <c r="I6"/>
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="1005" t="s">
+      <c r="A7" s="1014" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="1005"/>
-      <c r="C7" s="1005"/>
-      <c r="D7" s="1005"/>
-      <c r="E7" s="1005"/>
-      <c r="F7" s="1005"/>
-      <c r="G7" s="1005"/>
+      <c r="B7" s="1014"/>
+      <c r="C7" s="1014"/>
+      <c r="D7" s="1014"/>
+      <c r="E7" s="1014"/>
+      <c r="F7" s="1014"/>
+      <c r="G7" s="1014"/>
       <c r="I7"/>
     </row>
     <row r="8" spans="1:9" s="559" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
@@ -51179,8 +51239,8 @@
   </sheetPr>
   <dimension ref="A1:P249"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.6" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -51209,13 +51269,13 @@
         <v>454</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="E1" s="948" t="s">
+      <c r="E1" s="957" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="948"/>
-      <c r="G1" s="948"/>
-      <c r="H1" s="948"/>
-      <c r="I1" s="948"/>
+      <c r="F1" s="957"/>
+      <c r="G1" s="957"/>
+      <c r="H1" s="957"/>
+      <c r="I1" s="957"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -51236,10 +51296,10 @@
         <v>1588000</v>
       </c>
       <c r="G2" s="52"/>
-      <c r="H2" s="949" t="s">
+      <c r="H2" s="958" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="950"/>
+      <c r="I2" s="959"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -51429,10 +51489,10 @@
         <v>43540</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="951" t="s">
+      <c r="H10" s="960" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="952"/>
+      <c r="I10" s="961"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -51707,10 +51767,10 @@
       <c r="B22" s="76"/>
       <c r="C22" s="76"/>
       <c r="D22" s="76"/>
-      <c r="E22" s="955" t="s">
+      <c r="E22" s="964" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="956"/>
+      <c r="F22" s="965"/>
       <c r="G22" s="76"/>
       <c r="H22" s="84" t="s">
         <v>41</v>
@@ -51829,10 +51889,10 @@
     </row>
     <row r="28" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C28" s="1"/>
-      <c r="E28" s="953" t="s">
+      <c r="E28" s="962" t="s">
         <v>187</v>
       </c>
-      <c r="F28" s="954"/>
+      <c r="F28" s="963"/>
       <c r="G28" s="89"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -51886,10 +51946,10 @@
     </row>
     <row r="31" spans="1:14" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="1"/>
-      <c r="E31" s="946" t="s">
+      <c r="E31" s="955" t="s">
         <v>239</v>
       </c>
-      <c r="F31" s="947"/>
+      <c r="F31" s="956"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -52064,14 +52124,14 @@
       <c r="E41" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="F41" s="1008">
+      <c r="F41" s="926">
         <f>F27*H41</f>
         <v>1272</v>
       </c>
-      <c r="G41" s="1010" t="s">
+      <c r="G41" s="928" t="s">
         <v>532</v>
       </c>
-      <c r="H41" s="1009">
+      <c r="H41" s="927">
         <v>0.02</v>
       </c>
       <c r="I41" s="1"/>
@@ -52086,7 +52146,7 @@
       <c r="E42" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="F42" s="1011">
+      <c r="F42" s="929">
         <v>0</v>
       </c>
       <c r="G42" s="1"/>
@@ -54568,13 +54628,13 @@
   </sheetPr>
   <dimension ref="A1:AQ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="47.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" style="1" customWidth="1"/>
@@ -54813,7 +54873,7 @@
       <c r="A23" s="924" t="s">
         <v>534</v>
       </c>
-      <c r="B23" s="1012">
+      <c r="B23" s="1016">
         <v>10</v>
       </c>
       <c r="C23" s="626"/>
@@ -54940,7 +55000,7 @@
       <c r="G31" s="775"/>
     </row>
     <row r="32" spans="1:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1013" t="s">
+      <c r="A32" s="930" t="s">
         <v>495</v>
       </c>
       <c r="B32" s="780">
@@ -55096,6 +55156,28 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="18440" r:id="rId7" name="Spinner 8">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>198120</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>137160</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>419100</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>53340</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
@@ -55361,11 +55443,11 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="957" t="s">
+      <c r="B16" s="966" t="s">
         <v>178</v>
       </c>
-      <c r="C16" s="958"/>
-      <c r="D16" s="959"/>
+      <c r="C16" s="967"/>
+      <c r="D16" s="968"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -55712,10 +55794,10 @@
       <c r="C45" s="505"/>
     </row>
     <row r="46" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="978" t="s">
+      <c r="B46" s="987" t="s">
         <v>448</v>
       </c>
-      <c r="C46" s="979"/>
+      <c r="C46" s="988"/>
     </row>
     <row r="47" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="454" t="s">
@@ -55763,29 +55845,29 @@
       </c>
     </row>
     <row r="52" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C52" s="966" t="s">
+      <c r="C52" s="975" t="s">
         <v>312</v>
       </c>
-      <c r="D52" s="966"/>
-      <c r="E52" s="966" t="s">
+      <c r="D52" s="975"/>
+      <c r="E52" s="975" t="s">
         <v>310</v>
       </c>
-      <c r="F52" s="966"/>
-      <c r="G52" s="966" t="s">
+      <c r="F52" s="975"/>
+      <c r="G52" s="975" t="s">
         <v>311</v>
       </c>
-      <c r="H52" s="966"/>
+      <c r="H52" s="975"/>
     </row>
     <row r="53" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B53" s="967" t="s">
+      <c r="B53" s="976" t="s">
         <v>196</v>
       </c>
-      <c r="C53" s="968"/>
-      <c r="D53" s="968"/>
-      <c r="E53" s="968"/>
-      <c r="F53" s="968"/>
-      <c r="G53" s="968"/>
-      <c r="H53" s="969"/>
+      <c r="C53" s="977"/>
+      <c r="D53" s="977"/>
+      <c r="E53" s="977"/>
+      <c r="F53" s="977"/>
+      <c r="G53" s="977"/>
+      <c r="H53" s="978"/>
     </row>
     <row r="54" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B54" s="512" t="s">
@@ -55875,11 +55957,11 @@
       </c>
     </row>
     <row r="57" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B57" s="976" t="s">
+      <c r="B57" s="985" t="s">
         <v>320</v>
       </c>
-      <c r="C57" s="977"/>
-      <c r="D57" s="977"/>
+      <c r="C57" s="986"/>
+      <c r="D57" s="986"/>
       <c r="E57" s="516">
         <f>'ROI Number insert ARV'!H11-'ROI Number insert'!I11-C21</f>
         <v>-1331540</v>
@@ -55918,10 +56000,10 @@
       </c>
     </row>
     <row r="59" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="964" t="s">
+      <c r="B59" s="973" t="s">
         <v>194</v>
       </c>
-      <c r="C59" s="965"/>
+      <c r="C59" s="974"/>
       <c r="D59" s="521">
         <f>_xlfn.RRI(4,C51,D58)</f>
         <v>-0.40536091843460764</v>
@@ -55938,15 +56020,15 @@
       </c>
     </row>
     <row r="60" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B60" s="970" t="s">
+      <c r="B60" s="979" t="s">
         <v>192</v>
       </c>
-      <c r="C60" s="971"/>
-      <c r="D60" s="971"/>
-      <c r="E60" s="971"/>
-      <c r="F60" s="971"/>
-      <c r="G60" s="971"/>
-      <c r="H60" s="972"/>
+      <c r="C60" s="980"/>
+      <c r="D60" s="980"/>
+      <c r="E60" s="980"/>
+      <c r="F60" s="980"/>
+      <c r="G60" s="980"/>
+      <c r="H60" s="981"/>
     </row>
     <row r="61" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B61" s="524" t="s">
@@ -56065,10 +56147,10 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="962" t="s">
+      <c r="B65" s="971" t="s">
         <v>194</v>
       </c>
-      <c r="C65" s="963"/>
+      <c r="C65" s="972"/>
       <c r="D65" s="533">
         <f>RATE(9,,-('ROI details'!C5+'PR Result'!C5+'Total Result'!C26*'Calculating offering price'!C87),C64)</f>
         <v>0.32642186464779993</v>
@@ -56085,15 +56167,15 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="973" t="s">
+      <c r="B66" s="982" t="s">
         <v>195</v>
       </c>
-      <c r="C66" s="974"/>
-      <c r="D66" s="974"/>
-      <c r="E66" s="974"/>
-      <c r="F66" s="974"/>
-      <c r="G66" s="974"/>
-      <c r="H66" s="975"/>
+      <c r="C66" s="983"/>
+      <c r="D66" s="983"/>
+      <c r="E66" s="983"/>
+      <c r="F66" s="983"/>
+      <c r="G66" s="983"/>
+      <c r="H66" s="984"/>
     </row>
     <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B67" s="536" t="s">
@@ -56212,10 +56294,10 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="960" t="s">
+      <c r="B71" s="969" t="s">
         <v>194</v>
       </c>
-      <c r="C71" s="961"/>
+      <c r="C71" s="970"/>
       <c r="D71" s="545">
         <f>RATE(14,,-('ROI details'!C5+'PR Result'!C5+'Total Result'!C26*'Calculating offering price'!C87),C70)</f>
         <v>0.30651864188610201</v>
@@ -56289,10 +56371,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="980" t="s">
+      <c r="B2" s="989" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="980"/>
+      <c r="C2" s="989"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" s="290" t="s">
@@ -56529,10 +56611,10 @@
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="981" t="s">
+      <c r="B31" s="990" t="s">
         <v>333</v>
       </c>
-      <c r="C31" s="981"/>
+      <c r="C31" s="990"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
@@ -56562,10 +56644,10 @@
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="981" t="s">
+      <c r="B36" s="990" t="s">
         <v>340</v>
       </c>
-      <c r="C36" s="981"/>
+      <c r="C36" s="990"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
